--- a/biology/Microbiologie/Allantosomatidae/Allantosomatidae.xlsx
+++ b/biology/Microbiologie/Allantosomatidae/Allantosomatidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Allantosomatidae sont une famille de Ciliés de la classe des Kinetofragminophora et de l’ordre des Suctorida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Allantosoma, composé du préfixe grec allant-, « saucisse, boyau », et σώμα / soma, « corps », littéralement « corps en forme de saucisse ».
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les membres du genre Allantosoma sont des ciliés parasites des intestins des chevaux ; leur stade « trophonte » (stade adulte) a une forme allongée et porte des tentacules à chacune de ses extrémités[1].
-Ces animaux n'ont pas de pédoncule ; ils sont dépourvus de cils ; leurs tentacules, bien développées, en forme de massues épaissies aux extrémités, permet aux allantosomes d'adhèrer à différents types de ciliés et de les aspirer. Souvent, la proie est plusieurs fois plus grande que le prédateur[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les membres du genre Allantosoma sont des ciliés parasites des intestins des chevaux ; leur stade « trophonte » (stade adulte) a une forme allongée et porte des tentacules à chacune de ses extrémités.
+Ces animaux n'ont pas de pédoncule ; ils sont dépourvus de cils ; leurs tentacules, bien développées, en forme de massues épaissies aux extrémités, permet aux allantosomes d'adhèrer à différents types de ciliés et de les aspirer. Souvent, la proie est plusieurs fois plus grande que le prédateur.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (5 mai 2023)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (5 mai 2023) :
 Allantosoma Gassovsky, 1919 genre type
 Espèce type : Allantosoma intestinalis Gassovsky, 1919
 Arcosoma Jankowski, 1967
@@ -608,9 +626,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Allantosomatidae Jankowski, 1967[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Allantosomatidae Jankowski, 1967.
 </t>
         </is>
       </c>
